--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H2">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I2">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J2">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N2">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q2">
-        <v>32.8659613763289</v>
+        <v>22.88434132980833</v>
       </c>
       <c r="R2">
-        <v>295.79365238696</v>
+        <v>205.959071968275</v>
       </c>
       <c r="S2">
-        <v>0.08281630555242019</v>
+        <v>0.09317353627707528</v>
       </c>
       <c r="T2">
-        <v>0.08281630555242016</v>
+        <v>0.09317353627707527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H3">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I3">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J3">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q3">
-        <v>67.12785524723057</v>
+        <v>31.74165160213056</v>
       </c>
       <c r="R3">
-        <v>604.1506972250751</v>
+        <v>285.674864419175</v>
       </c>
       <c r="S3">
-        <v>0.1691501096705252</v>
+        <v>0.1292360520419736</v>
       </c>
       <c r="T3">
-        <v>0.1691501096705252</v>
+        <v>0.1292360520419736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H4">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I4">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J4">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N4">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q4">
-        <v>17.87721540280722</v>
+        <v>10.26809573497278</v>
       </c>
       <c r="R4">
-        <v>160.894938625265</v>
+        <v>92.412861614755</v>
       </c>
       <c r="S4">
-        <v>0.04504736424024512</v>
+        <v>0.0418065251112465</v>
       </c>
       <c r="T4">
-        <v>0.04504736424024511</v>
+        <v>0.0418065251112465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H5">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I5">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J5">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N5">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q5">
-        <v>27.453314355753</v>
+        <v>7.517395380193555</v>
       </c>
       <c r="R5">
-        <v>247.079829201777</v>
+        <v>67.65655842174201</v>
       </c>
       <c r="S5">
-        <v>0.06917740954172086</v>
+        <v>0.03060705576232763</v>
       </c>
       <c r="T5">
-        <v>0.06917740954172086</v>
+        <v>0.03060705576232763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.744019</v>
       </c>
       <c r="I6">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J6">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N6">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q6">
-        <v>15.29619380694223</v>
+        <v>22.52416525340833</v>
       </c>
       <c r="R6">
-        <v>137.66574426248</v>
+        <v>202.717487280675</v>
       </c>
       <c r="S6">
-        <v>0.0385436545001582</v>
+        <v>0.09170708031765129</v>
       </c>
       <c r="T6">
-        <v>0.03854365450015819</v>
+        <v>0.09170708031765129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.744019</v>
       </c>
       <c r="I7">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J7">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q7">
         <v>31.24207054066389</v>
@@ -883,10 +883,10 @@
         <v>281.178634865975</v>
       </c>
       <c r="S7">
-        <v>0.07872439300830492</v>
+        <v>0.1272020090479865</v>
       </c>
       <c r="T7">
-        <v>0.07872439300830492</v>
+        <v>0.1272020090479865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.744019</v>
       </c>
       <c r="I8">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J8">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N8">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q8">
-        <v>8.320260235160557</v>
+        <v>10.10648643275944</v>
       </c>
       <c r="R8">
-        <v>74.88234211644502</v>
+        <v>90.95837789483501</v>
       </c>
       <c r="S8">
-        <v>0.02096555783111782</v>
+        <v>0.04114853325710152</v>
       </c>
       <c r="T8">
-        <v>0.02096555783111782</v>
+        <v>0.04114853325710154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.744019</v>
       </c>
       <c r="I9">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J9">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N9">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q9">
-        <v>12.777086062389</v>
+        <v>7.399079282134889</v>
       </c>
       <c r="R9">
-        <v>114.993774561501</v>
+        <v>66.59171353921401</v>
       </c>
       <c r="S9">
-        <v>0.03219595651854232</v>
+        <v>0.03012533207643452</v>
       </c>
       <c r="T9">
-        <v>0.03219595651854232</v>
+        <v>0.03012533207643453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H10">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I10">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J10">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N10">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q10">
-        <v>23.04562250504889</v>
+        <v>31.6648084654</v>
       </c>
       <c r="R10">
-        <v>207.41060254544</v>
+        <v>284.9832761886</v>
       </c>
       <c r="S10">
-        <v>0.05807081962916382</v>
+        <v>0.1289231854103925</v>
       </c>
       <c r="T10">
-        <v>0.05807081962916381</v>
+        <v>0.1289231854103925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H11">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I11">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J11">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>161.224525</v>
       </c>
       <c r="O11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q11">
-        <v>47.07007331650556</v>
+        <v>43.92057013446667</v>
       </c>
       <c r="R11">
-        <v>423.6306598485501</v>
+        <v>395.2851312102</v>
       </c>
       <c r="S11">
-        <v>0.1186081103643641</v>
+        <v>0.1788224872088916</v>
       </c>
       <c r="T11">
-        <v>0.1186081103643641</v>
+        <v>0.1788224872088915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H12">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I12">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J12">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N12">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q12">
-        <v>12.53550909091222</v>
+        <v>14.20784981601333</v>
       </c>
       <c r="R12">
-        <v>112.81958181821</v>
+        <v>127.87064834412</v>
       </c>
       <c r="S12">
-        <v>0.03158722604341135</v>
+        <v>0.05784722361780308</v>
       </c>
       <c r="T12">
-        <v>0.03158722604341135</v>
+        <v>0.05784722361780308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H13">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I13">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J13">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N13">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q13">
-        <v>19.250272703442</v>
+        <v>10.40173634197867</v>
       </c>
       <c r="R13">
-        <v>173.252454330978</v>
+        <v>93.615627077808</v>
       </c>
       <c r="S13">
-        <v>0.04850722143560619</v>
+        <v>0.04235064249550934</v>
       </c>
       <c r="T13">
-        <v>0.04850722143560619</v>
+        <v>0.04235064249550934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H14">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I14">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J14">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N14">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O14">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P14">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q14">
-        <v>18.54304746298667</v>
+        <v>0.5472511791916667</v>
       </c>
       <c r="R14">
-        <v>166.88742716688</v>
+        <v>4.925260612724999</v>
       </c>
       <c r="S14">
-        <v>0.04672514115694694</v>
+        <v>0.002228131754470473</v>
       </c>
       <c r="T14">
-        <v>0.04672514115694693</v>
+        <v>0.002228131754470472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H15">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I15">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J15">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>161.224525</v>
       </c>
       <c r="O15">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P15">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q15">
-        <v>37.87368309981667</v>
+        <v>0.7590629775361112</v>
       </c>
       <c r="R15">
-        <v>340.86314789835</v>
+        <v>6.831566797825</v>
       </c>
       <c r="S15">
-        <v>0.09543486271632383</v>
+        <v>0.003090522941200947</v>
       </c>
       <c r="T15">
-        <v>0.09543486271632382</v>
+        <v>0.003090522941200946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H16">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I16">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J16">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N16">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O16">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P16">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q16">
-        <v>10.08636412379667</v>
+        <v>0.2455490161605556</v>
       </c>
       <c r="R16">
-        <v>90.77727711417</v>
+        <v>2.209941145445</v>
       </c>
       <c r="S16">
-        <v>0.02541582166499271</v>
+        <v>0.0009997521814287362</v>
       </c>
       <c r="T16">
-        <v>0.02541582166499271</v>
+        <v>0.0009997521814287362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H17">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I17">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J17">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N17">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O17">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P17">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q17">
-        <v>15.489220147434</v>
+        <v>0.1797693639931111</v>
       </c>
       <c r="R17">
-        <v>139.402981326906</v>
+        <v>1.617924275938</v>
       </c>
       <c r="S17">
-        <v>0.03903004612615656</v>
+        <v>0.0007319304985064727</v>
       </c>
       <c r="T17">
-        <v>0.03903004612615656</v>
+        <v>0.0007319304985064726</v>
       </c>
     </row>
   </sheetData>
